--- a/src/main/World Design - Frosty.xlsx
+++ b/src/main/World Design - Frosty.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\bunker\twolandia\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B708FCA8-72CD-4CEA-B91E-94901A4688DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Image" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Air</t>
   </si>
@@ -74,25 +75,16 @@
     <t>Leaves</t>
   </si>
   <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>Lighter Cloud</t>
-  </si>
-  <si>
     <t>amethyst</t>
   </si>
   <si>
     <t>flames</t>
   </si>
-  <si>
-    <t>fish</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -641,11 +633,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AX10" sqref="AX10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="CK22" sqref="CK22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2061,9 +2053,6 @@
       <c r="CJ15" s="17">
         <v>14</v>
       </c>
-      <c r="CK15" s="12" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="16" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
@@ -2153,9 +2142,6 @@
       <c r="CG16" s="1"/>
       <c r="CH16" s="1"/>
       <c r="CJ16" s="18">
-        <v>14</v>
-      </c>
-      <c r="CK16" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2250,7 +2236,7 @@
         <v>16</v>
       </c>
       <c r="CK17" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:89" x14ac:dyDescent="0.2">
@@ -2344,7 +2330,7 @@
         <v>17</v>
       </c>
       <c r="CK18" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:89" x14ac:dyDescent="0.2">
@@ -2441,9 +2427,6 @@
       <c r="CJ19" s="21">
         <v>18</v>
       </c>
-      <c r="CK19" s="12" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="20" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
@@ -4082,11 +4065,11 @@
       <c r="AF30" s="6">
         <v>5</v>
       </c>
-      <c r="AG30" s="21">
-        <v>18</v>
-      </c>
-      <c r="AH30" s="21">
-        <v>18</v>
+      <c r="AG30" s="6">
+        <v>5</v>
+      </c>
+      <c r="AH30" s="6">
+        <v>5</v>
       </c>
       <c r="AI30" s="6">
         <v>5</v>
@@ -4121,11 +4104,11 @@
       <c r="AS30" s="6">
         <v>5</v>
       </c>
-      <c r="AT30" s="21">
-        <v>18</v>
-      </c>
-      <c r="AU30" s="21">
-        <v>18</v>
+      <c r="AT30" s="6">
+        <v>5</v>
+      </c>
+      <c r="AU30" s="6">
+        <v>5</v>
       </c>
       <c r="AV30" s="6">
         <v>5</v>
@@ -4354,11 +4337,11 @@
       <c r="AJ31" s="6">
         <v>5</v>
       </c>
-      <c r="AK31" s="21">
-        <v>18</v>
-      </c>
-      <c r="AL31" s="21">
-        <v>18</v>
+      <c r="AK31" s="6">
+        <v>5</v>
+      </c>
+      <c r="AL31" s="6">
+        <v>5</v>
       </c>
       <c r="AM31" s="6">
         <v>5</v>
@@ -9972,10 +9955,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CJ52"/>
   <sheetViews>
-    <sheetView topLeftCell="U15" workbookViewId="0">
+    <sheetView topLeftCell="U40" workbookViewId="0">
       <selection activeCell="CJ1" sqref="CJ1:CJ52"/>
     </sheetView>
   </sheetViews>
@@ -10329,9 +10312,9 @@
         <f>IF(Image!CH1 = 0, 0, Image!CH1)</f>
         <v>0</v>
       </c>
-      <c r="CJ1" t="e">
-        <f t="shared" ref="CJ1:CJ32" ca="1" si="0">"["&amp;_xlfn.CONCAT(A1:CH1)&amp;"],"</f>
-        <v>#NAME?</v>
+      <c r="CJ1" t="str">
+        <f t="shared" ref="CJ1:CJ32" si="0">"["&amp;_xlfn.CONCAT(A1:CH1)&amp;"],"</f>
+        <v>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="2" spans="1:88" x14ac:dyDescent="0.25">
@@ -10679,9 +10662,9 @@
         <f>IF(Image!CH2 = 0, 0, Image!CH2)</f>
         <v>0</v>
       </c>
-      <c r="CJ2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ2" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="3" spans="1:88" x14ac:dyDescent="0.25">
@@ -11029,9 +11012,9 @@
         <f>IF(Image!CH3 = 0, 0, Image!CH3)</f>
         <v>0</v>
       </c>
-      <c r="CJ3" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ3" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="4" spans="1:88" x14ac:dyDescent="0.25">
@@ -11379,9 +11362,9 @@
         <f>IF(Image!CH4 = 0, 0, Image!CH4)</f>
         <v>0</v>
       </c>
-      <c r="CJ4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ4" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="5" spans="1:88" x14ac:dyDescent="0.25">
@@ -11729,9 +11712,9 @@
         <f>IF(Image!CH5 = 0, 0, Image!CH5)</f>
         <v>0</v>
       </c>
-      <c r="CJ5" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ5" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="6" spans="1:88" x14ac:dyDescent="0.25">
@@ -12079,9 +12062,9 @@
         <f>IF(Image!CH6 = 0, 0, Image!CH6)</f>
         <v>0</v>
       </c>
-      <c r="CJ6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ6" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="7" spans="1:88" x14ac:dyDescent="0.25">
@@ -12429,9 +12412,9 @@
         <f>IF(Image!CH7 = 0, 0, Image!CH7)</f>
         <v>0</v>
       </c>
-      <c r="CJ7" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ7" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="8" spans="1:88" x14ac:dyDescent="0.25">
@@ -12779,9 +12762,9 @@
         <f>IF(Image!CH8 = 0, 0, Image!CH8)</f>
         <v>0</v>
       </c>
-      <c r="CJ8" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ8" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="9" spans="1:88" x14ac:dyDescent="0.25">
@@ -13129,9 +13112,9 @@
         <f>IF(Image!CH9 = 0, 0, Image!CH9)</f>
         <v>0</v>
       </c>
-      <c r="CJ9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ9" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="10" spans="1:88" x14ac:dyDescent="0.25">
@@ -13479,9 +13462,9 @@
         <f>IF(Image!CH10 = 0, 0, Image!CH10)</f>
         <v>0</v>
       </c>
-      <c r="CJ10" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ10" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="11" spans="1:88" x14ac:dyDescent="0.25">
@@ -13829,9 +13812,9 @@
         <f>IF(Image!CH11 = 0, 0, Image!CH11)</f>
         <v>0</v>
       </c>
-      <c r="CJ11" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ11" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="12" spans="1:88" x14ac:dyDescent="0.25">
@@ -14179,9 +14162,9 @@
         <f>IF(Image!CH12 = 0, 0, Image!CH12)</f>
         <v>0</v>
       </c>
-      <c r="CJ12" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ12" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="13" spans="1:88" x14ac:dyDescent="0.25">
@@ -14529,9 +14512,9 @@
         <f>IF(Image!CH13 = 0, 0, Image!CH13)</f>
         <v>0</v>
       </c>
-      <c r="CJ13" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ13" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="14" spans="1:88" x14ac:dyDescent="0.25">
@@ -14879,9 +14862,9 @@
         <f>IF(Image!CH14 = 0, 0, Image!CH14)</f>
         <v>0</v>
       </c>
-      <c r="CJ14" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ14" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="15" spans="1:88" x14ac:dyDescent="0.25">
@@ -15229,9 +15212,9 @@
         <f>IF(Image!CH15 = 0, 0, Image!CH15)</f>
         <v>0</v>
       </c>
-      <c r="CJ15" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ15" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="16" spans="1:88" x14ac:dyDescent="0.25">
@@ -15579,9 +15562,9 @@
         <f>IF(Image!CH16 = 0, 0, Image!CH16)</f>
         <v>0</v>
       </c>
-      <c r="CJ16" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ16" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="17" spans="1:88" x14ac:dyDescent="0.25">
@@ -15929,9 +15912,9 @@
         <f>IF(Image!CH17 = 0, 0, Image!CH17)</f>
         <v>0</v>
       </c>
-      <c r="CJ17" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ17" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="18" spans="1:88" x14ac:dyDescent="0.25">
@@ -16279,9 +16262,9 @@
         <f>IF(Image!CH18 = 0, 0, Image!CH18)</f>
         <v>0</v>
       </c>
-      <c r="CJ18" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ18" t="str">
+        <f t="shared" si="0"/>
+        <v>[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="19" spans="1:88" x14ac:dyDescent="0.25">
@@ -16629,9 +16612,9 @@
         <f>IF(Image!CH19 = 0, 0, Image!CH19)</f>
         <v>0</v>
       </c>
-      <c r="CJ19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ19" t="str">
+        <f t="shared" si="0"/>
+        <v>[2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,13,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="20" spans="1:88" x14ac:dyDescent="0.25">
@@ -16979,9 +16962,9 @@
         <f>IF(Image!CH20 = 0, 0, Image!CH20)</f>
         <v>0</v>
       </c>
-      <c r="CJ20" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ20" t="str">
+        <f t="shared" si="0"/>
+        <v>[2,2,0,0,0,0,0,0,0,0,0,0,13,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,13,13,13,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="21" spans="1:88" x14ac:dyDescent="0.25">
@@ -17329,9 +17312,9 @@
         <f>IF(Image!CH21 = 0, 0, Image!CH21)</f>
         <v>0</v>
       </c>
-      <c r="CJ21" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ21" t="str">
+        <f t="shared" si="0"/>
+        <v>[2,2,2,0,0,0,0,0,0,0,0,13,13,13,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,13,12,13,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="22" spans="1:88" x14ac:dyDescent="0.25">
@@ -17679,9 +17662,9 @@
         <f>IF(Image!CH22 = 0, 0, Image!CH22)</f>
         <v>0</v>
       </c>
-      <c r="CJ22" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ22" t="str">
+        <f t="shared" si="0"/>
+        <v>[2,2,1,1,1,0,0,0,0,0,0,13,12,13,13,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,13,13,12,13,13,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="23" spans="1:88" x14ac:dyDescent="0.25">
@@ -18029,9 +18012,9 @@
         <f>IF(Image!CH23 = 0, 0, Image!CH23)</f>
         <v>0</v>
       </c>
-      <c r="CJ23" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ23" t="str">
+        <f t="shared" si="0"/>
+        <v>[2,2,1,3,1,1,3,3,0,0,13,13,12,13,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,13,13,12,13,13,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="24" spans="1:88" x14ac:dyDescent="0.25">
@@ -18379,9 +18362,9 @@
         <f>IF(Image!CH24 = 0, 0, Image!CH24)</f>
         <v>0</v>
       </c>
-      <c r="CJ24" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ24" t="str">
+        <f t="shared" si="0"/>
+        <v>[2,1,1,3,3,3,3,3,3,1,0,13,12,13,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,12,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="25" spans="1:88" x14ac:dyDescent="0.25">
@@ -18729,9 +18712,9 @@
         <f>IF(Image!CH25 = 0, 0, Image!CH25)</f>
         <v>0</v>
       </c>
-      <c r="CJ25" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ25" t="str">
+        <f t="shared" si="0"/>
+        <v>[1,1,3,3,3,3,3,3,3,2,2,0,12,0,0,2,2,1,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,12,0,0,0,0,0,0,0,0,0,0,0,0,0,0],</v>
       </c>
     </row>
     <row r="26" spans="1:88" x14ac:dyDescent="0.25">
@@ -19079,9 +19062,9 @@
         <f>IF(Image!CH26 = 0, 0, Image!CH26)</f>
         <v>0</v>
       </c>
-      <c r="CJ26" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ26" t="str">
+        <f t="shared" si="0"/>
+        <v>[1,3,3,17,3,3,3,3,1,2,2,2,2,2,2,2,2,1,1,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,2,2,2,2,2,2,2,2,0,0,0,0,2,0,0,0],</v>
       </c>
     </row>
     <row r="27" spans="1:88" x14ac:dyDescent="0.25">
@@ -19429,9 +19412,9 @@
         <f>IF(Image!CH27 = 0, 0, Image!CH27)</f>
         <v>0</v>
       </c>
-      <c r="CJ27" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ27" t="str">
+        <f t="shared" si="0"/>
+        <v>[1,3,17,17,3,3,1,1,2,2,2,2,1,2,2,2,2,2,1,2,2,2,0,2,0,2,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,2,0,0],</v>
       </c>
     </row>
     <row r="28" spans="1:88" x14ac:dyDescent="0.25">
@@ -19779,9 +19762,9 @@
         <f>IF(Image!CH28 = 0, 0, Image!CH28)</f>
         <v>2</v>
       </c>
-      <c r="CJ28" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ28" t="str">
+        <f t="shared" si="0"/>
+        <v>[1,3,12,12,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,2,2,2,2,2,2,2,2,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,2,2,2,2,2,2,2,2,2,2,1,1,1,1,1,1,1,1,1,2,2,2,2,2,2,2,2,2,2],</v>
       </c>
     </row>
     <row r="29" spans="1:88" x14ac:dyDescent="0.25">
@@ -20129,9 +20112,9 @@
         <f>IF(Image!CH29 = 0, 0, Image!CH29)</f>
         <v>1</v>
       </c>
-      <c r="CJ29" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ29" t="str">
+        <f t="shared" si="0"/>
+        <v>[1,1,1,1,1,1,1,8,8,1,1,1,1,1,1,1,1,1,1,2,2,2,1,2,2,2,2,2,2,5,5,5,5,5,5,5,5,5,5,5,5,5,5,5,5,5,5,5,5,5,5,5,11,2,2,2,2,2,2,2,2,2,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1],</v>
       </c>
     </row>
     <row r="30" spans="1:88" x14ac:dyDescent="0.25">
@@ -20265,11 +20248,11 @@
       </c>
       <c r="AG30" t="str">
         <f>IF(Image!AG30 = 0, 0, Image!AG30)&amp;","</f>
-        <v>18,</v>
+        <v>5,</v>
       </c>
       <c r="AH30" t="str">
         <f>IF(Image!AH30 = 0, 0, Image!AH30)&amp;","</f>
-        <v>18,</v>
+        <v>5,</v>
       </c>
       <c r="AI30" t="str">
         <f>IF(Image!AI30 = 0, 0, Image!AI30)&amp;","</f>
@@ -20317,11 +20300,11 @@
       </c>
       <c r="AT30" t="str">
         <f>IF(Image!AT30 = 0, 0, Image!AT30)&amp;","</f>
-        <v>18,</v>
+        <v>5,</v>
       </c>
       <c r="AU30" t="str">
         <f>IF(Image!AU30 = 0, 0, Image!AU30)&amp;","</f>
-        <v>18,</v>
+        <v>5,</v>
       </c>
       <c r="AV30" t="str">
         <f>IF(Image!AV30 = 0, 0, Image!AV30)&amp;","</f>
@@ -20479,9 +20462,9 @@
         <f>IF(Image!CH30 = 0, 0, Image!CH30)</f>
         <v>1</v>
       </c>
-      <c r="CJ30" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ30" t="str">
+        <f t="shared" si="0"/>
+        <v>[1,1,1,1,1,1,1,7,7,7,7,1,1,1,1,1,1,1,1,2,8,8,1,1,1,1,1,1,2,2,5,5,5,5,5,5,5,5,5,5,5,5,5,5,5,5,5,5,5,2,2,2,2,2,2,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,3,1,1,1,1,1,1,1],</v>
       </c>
     </row>
     <row r="31" spans="1:88" x14ac:dyDescent="0.25">
@@ -20631,11 +20614,11 @@
       </c>
       <c r="AK31" t="str">
         <f>IF(Image!AK31 = 0, 0, Image!AK31)&amp;","</f>
-        <v>18,</v>
+        <v>5,</v>
       </c>
       <c r="AL31" t="str">
         <f>IF(Image!AL31 = 0, 0, Image!AL31)&amp;","</f>
-        <v>18,</v>
+        <v>5,</v>
       </c>
       <c r="AM31" t="str">
         <f>IF(Image!AM31 = 0, 0, Image!AM31)&amp;","</f>
@@ -20829,9 +20812,9 @@
         <f>IF(Image!CH31 = 0, 0, Image!CH31)</f>
         <v>1</v>
       </c>
-      <c r="CJ31" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="CJ31" t="str">
+        <f t="shared" si="0"/>
+        <v>[1,1,1,1,1,1,7,7,7,7,1,1,1,1,1,1,1,1,1,8,8,1,1,1,1,1,1,1,1,2,2,5,5,5,5,5,5,5,5,5,5,5,5,5,5,2,2,2,2,2,2,2,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,3,3,3,1,1,1,1,1,1,1],</v>
       </c>
     </row>
     <row r="32" spans="1:88" x14ac:dyDescent="0.25">
@@ -21529,9 +21512,9 @@
         <f>IF(Image!CH33 = 0, 0, Image!CH33)</f>
         <v>1</v>
       </c>
-      <c r="CJ33" t="e">
-        <f t="shared" ref="CJ33:CJ52" ca="1" si="1">"["&amp;_xlfn.CONCAT(A33:CH33)&amp;"],"</f>
-        <v>#NAME?</v>
+      <c r="CJ33" t="str">
+        <f t="shared" ref="CJ33:CJ52" si="1">"["&amp;_xlfn.CONCAT(A33:CH33)&amp;"],"</f>
+        <v>[1,1,1,1,1,1,1,7,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,2,2,2,5,5,5,5,5,5,5,5,2,2,2,2,1,1,1,1,1,1,1,1,1,1,1,1,1,1,3,1,1,1,1,1,7,7,7,7,7,7,3,3,3,3,3,3,3,3,1,1,1,1,1,1,1,1],</v>
       </c>
     </row>
     <row r="34" spans="1:88" x14ac:dyDescent="0.25">
@@ -21879,9 +21862,9 @@
         <f>IF(Image!CH34 = 0, 0, Image!CH34)</f>
         <v>1</v>
       </c>
-      <c r="CJ34" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="CJ34" t="str">
+        <f t="shared" si="1"/>
+        <v>[2,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,2,2,2,2,5,5,2,2,2,2,2,2,2,2,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,3,1,1,1,1,1,1,7,1,7,8,8,8,1,3,3,3,3,3,1,1,1,1,1,1,1,1,1],</v>
       </c>
     </row>
     <row r="35" spans="1:88" x14ac:dyDescent="0.25">
@@ -22229,9 +22212,9 @@
         <f>IF(Image!CH35 = 0, 0, Image!CH35)</f>
         <v>1</v>
       </c>
-      <c r="CJ35" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="CJ35" t="str">
+        <f t="shared" si="1"/>
+        <v>[1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,2,2,2,2,2,2,2,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,3,3,3,3,1,1,1,1,1,1,1,1,1,1,1,1,1,1,3,3,1,1,1,1,1,1,1,1,1,1],</v>
       </c>
     </row>
     <row r="36" spans="1:88" x14ac:dyDescent="0.25">
@@ -22579,9 +22562,9 @@
         <f>IF(Image!CH36 = 0, 0, Image!CH36)</f>
         <v>1</v>
       </c>
-      <c r="CJ36" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="CJ36" t="str">
+        <f t="shared" si="1"/>
+        <v>[1,1,1,1,1,1,1,1,1,1,1,1,1,3,1,1,1,1,1,1,1,1,1,1,1,1,1,1,3,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,3,3,3,3,3,3,3,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,2,1,1,1,1],</v>
       </c>
     </row>
     <row r="37" spans="1:88" x14ac:dyDescent="0.25">
@@ -22929,9 +22912,9 @@
         <f>IF(Image!CH37 = 0, 0, Image!CH37)</f>
         <v>1</v>
       </c>
-      <c r="CJ37" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="CJ37" t="str">
+        <f t="shared" si="1"/>
+        <v>[1,1,1,1,1,2,1,1,1,1,1,1,3,3,3,1,1,1,1,1,1,3,3,1,1,1,1,3,3,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,3,3,3,3,3,3,3,3,3,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,2,1,1,1,1],</v>
       </c>
     </row>
     <row r="38" spans="1:88" x14ac:dyDescent="0.25">
@@ -23279,9 +23262,9 @@
         <f>IF(Image!CH38 = 0, 0, Image!CH38)</f>
         <v>1</v>
       </c>
-      <c r="CJ38" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="CJ38" t="str">
+        <f t="shared" si="1"/>
+        <v>[1,1,1,1,1,1,1,1,1,1,1,3,3,3,3,3,1,1,1,1,3,3,3,1,1,1,3,3,3,1,1,1,3,3,3,3,3,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,3,3,3,3,3,3,3,3,1,1,1,1,1,2,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1],</v>
       </c>
     </row>
     <row r="39" spans="1:88" x14ac:dyDescent="0.25">
@@ -23629,9 +23612,9 @@
         <f>IF(Image!CH39 = 0, 0, Image!CH39)</f>
         <v>1</v>
       </c>
-      <c r="CJ39" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="CJ39" t="str">
+        <f t="shared" si="1"/>
+        <v>[1,1,1,1,1,1,1,1,1,3,3,3,3,1,3,3,1,1,1,1,1,3,3,3,1,3,2,2,1,3,3,3,2,2,2,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,3,3,3,3,3,3,3,3,3,1,1,1,1,1,1,1,1,1,3,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1],</v>
       </c>
     </row>
     <row r="40" spans="1:88" x14ac:dyDescent="0.25">
@@ -23979,9 +23962,9 @@
         <f>IF(Image!CH40 = 0, 0, Image!CH40)</f>
         <v>1</v>
       </c>
-      <c r="CJ40" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="CJ40" t="str">
+        <f t="shared" si="1"/>
+        <v>[1,1,1,1,1,1,1,1,1,3,3,3,3,3,3,3,3,1,1,1,1,1,3,3,1,3,2,1,3,3,3,3,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,3,3,3,3,3,3,3,3,3,3,1,1,1,1,1,1,1,1,1,3,3,1,1,3,1,1,1,1,1,1,1,1,1,1,1,1],</v>
       </c>
     </row>
     <row r="41" spans="1:88" x14ac:dyDescent="0.25">
@@ -24329,9 +24312,9 @@
         <f>IF(Image!CH41 = 0, 0, Image!CH41)</f>
         <v>1</v>
       </c>
-      <c r="CJ41" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="CJ41" t="str">
+        <f t="shared" si="1"/>
+        <v>[1,1,1,1,1,1,1,1,1,16,2,3,3,3,3,2,2,3,3,3,1,1,3,3,3,3,2,2,3,3,1,1,1,1,1,1,1,1,1,1,1,1,7,7,1,1,3,3,3,3,3,3,3,3,3,3,3,3,3,3,1,1,1,1,1,1,1,1,1,3,3,3,3,3,1,1,1,1,1,1,1,1,1,1,1,1],</v>
       </c>
     </row>
     <row r="42" spans="1:88" x14ac:dyDescent="0.25">
@@ -24679,9 +24662,9 @@
         <f>IF(Image!CH42 = 0, 0, Image!CH42)</f>
         <v>1</v>
       </c>
-      <c r="CJ42" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="CJ42" t="str">
+        <f t="shared" si="1"/>
+        <v>[1,1,2,1,1,1,1,1,1,1,1,2,2,1,3,3,2,3,3,3,3,3,3,3,3,3,3,3,1,1,1,1,1,1,1,1,1,1,1,1,7,7,7,7,3,3,3,3,3,3,2,2,3,3,3,3,3,3,3,3,1,1,1,1,1,1,1,1,1,1,1,3,3,1,1,1,1,1,1,1,1,1,1,1,1,1],</v>
       </c>
     </row>
     <row r="43" spans="1:88" x14ac:dyDescent="0.25">
@@ -25029,9 +25012,9 @@
         <f>IF(Image!CH43 = 0, 0, Image!CH43)</f>
         <v>1</v>
       </c>
-      <c r="CJ43" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="CJ43" t="str">
+        <f t="shared" si="1"/>
+        <v>[1,1,1,1,1,1,1,1,1,1,1,2,2,1,1,3,3,2,3,3,3,3,3,3,3,3,3,1,1,1,1,1,1,1,1,1,1,1,1,1,7,3,3,3,3,3,3,3,3,2,8,8,1,1,3,3,3,3,3,3,1,1,1,2,1,1,1,1,1,1,1,1,1,1,1,1,1,1,8,8,8,1,1,1,1,1],</v>
       </c>
     </row>
     <row r="44" spans="1:88" x14ac:dyDescent="0.25">
@@ -25379,9 +25362,9 @@
         <f>IF(Image!CH44 = 0, 0, Image!CH44)</f>
         <v>1</v>
       </c>
-      <c r="CJ44" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="CJ44" t="str">
+        <f t="shared" si="1"/>
+        <v>[1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,3,3,3,1,3,3,3,3,3,3,3,1,1,1,1,1,1,1,1,1,1,1,1,1,3,3,3,3,3,3,3,3,1,1,1,1,1,1,1,1,1,1,3,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,8,1,1,1,1,1,1],</v>
       </c>
     </row>
     <row r="45" spans="1:88" x14ac:dyDescent="0.25">
@@ -25729,9 +25712,9 @@
         <f>IF(Image!CH45 = 0, 0, Image!CH45)</f>
         <v>1</v>
       </c>
-      <c r="CJ45" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="CJ45" t="str">
+        <f t="shared" si="1"/>
+        <v>[1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,3,3,1,1,3,1,1,1,1,1,1,1,1,1,1,1,1,1,1,3,3,3,3,3,3,3,1,1,1,1,1,1,1,1,1,1,1,3,3,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1],</v>
       </c>
     </row>
     <row r="46" spans="1:88" x14ac:dyDescent="0.25">
@@ -26079,9 +26062,9 @@
         <f>IF(Image!CH46 = 0, 0, Image!CH46)</f>
         <v>1</v>
       </c>
-      <c r="CJ46" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="CJ46" t="str">
+        <f t="shared" si="1"/>
+        <v>[1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,2,3,3,3,3,3,3,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,16,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1],</v>
       </c>
     </row>
     <row r="47" spans="1:88" x14ac:dyDescent="0.25">
@@ -26429,9 +26412,9 @@
         <f>IF(Image!CH47 = 0, 0, Image!CH47)</f>
         <v>1</v>
       </c>
-      <c r="CJ47" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="CJ47" t="str">
+        <f t="shared" si="1"/>
+        <v>[1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,8,8,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,2,2,1,3,3,3,3,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1],</v>
       </c>
     </row>
     <row r="48" spans="1:88" x14ac:dyDescent="0.25">
@@ -26779,9 +26762,9 @@
         <f>IF(Image!CH48 = 0, 0, Image!CH48)</f>
         <v>1</v>
       </c>
-      <c r="CJ48" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="CJ48" t="str">
+        <f t="shared" si="1"/>
+        <v>[1,1,8,1,1,1,1,1,1,1,1,1,1,9,1,1,1,1,1,16,8,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,3,3,3,3,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1],</v>
       </c>
     </row>
     <row r="49" spans="1:88" x14ac:dyDescent="0.25">
@@ -27129,9 +27112,9 @@
         <f>IF(Image!CH49 = 0, 0, Image!CH49)</f>
         <v>1</v>
       </c>
-      <c r="CJ49" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="CJ49" t="str">
+        <f t="shared" si="1"/>
+        <v>[1,1,1,1,1,1,1,1,1,1,1,1,9,9,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,9,9,1,1,1,1,1,1,1,3,3,2,2,2,1,3,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,9,9,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,9,9,9,1,1,1],</v>
       </c>
     </row>
     <row r="50" spans="1:88" x14ac:dyDescent="0.25">
@@ -27479,9 +27462,9 @@
         <f>IF(Image!CH50 = 0, 0, Image!CH50)</f>
         <v>16</v>
       </c>
-      <c r="CJ50" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="CJ50" t="str">
+        <f t="shared" si="1"/>
+        <v>[1,1,1,1,1,1,1,1,1,1,1,1,1,9,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,3,3,1,1,1,3,3,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,9,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,9,1,1,1,16],</v>
       </c>
     </row>
     <row r="51" spans="1:88" x14ac:dyDescent="0.25">
@@ -27829,9 +27812,9 @@
         <f>IF(Image!CH51 = 0, 0, Image!CH51)</f>
         <v>16</v>
       </c>
-      <c r="CJ51" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="CJ51" t="str">
+        <f t="shared" si="1"/>
+        <v>[1,1,1,1,1,1,16,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,2,2,1,1,1,3,3,8,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,16,16],</v>
       </c>
     </row>
     <row r="52" spans="1:88" x14ac:dyDescent="0.25">
@@ -28179,9 +28162,9 @@
         <f>IF(Image!CH52 = 0, 0, Image!CH52)</f>
         <v>16</v>
       </c>
-      <c r="CJ52" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="CJ52" t="str">
+        <f t="shared" si="1"/>
+        <v>[1,1,1,1,16,16,16,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,16,16,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,16,16],</v>
       </c>
     </row>
   </sheetData>
